--- a/pour trash.xlsx
+++ b/pour trash.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\KXKMSACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6EF233-62E6-48F7-9003-906217AEA917}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D579D-C1C2-4721-8C8F-C77A2F63AE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{107CE0B9-EBDD-449D-90AD-3C7C7BB10BB3}"/>
+    <workbookView xWindow="29085" yWindow="6705" windowWidth="19410" windowHeight="9900" xr2:uid="{107CE0B9-EBDD-449D-90AD-3C7C7BB10BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$O$22</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>jauge</t>
   </si>
@@ -151,6 +154,30 @@
   </si>
   <si>
     <t>couleur</t>
+  </si>
+  <si>
+    <t>3 Blink</t>
+  </si>
+  <si>
+    <t>2 Blink</t>
+  </si>
+  <si>
+    <t>1 Blink</t>
+  </si>
+  <si>
+    <t>--&gt; Blink</t>
+  </si>
+  <si>
+    <t>&gt; 13%</t>
+  </si>
+  <si>
+    <t>&gt; 14%</t>
+  </si>
+  <si>
+    <t>&gt; 12%</t>
+  </si>
+  <si>
+    <t>&gt; 11%</t>
   </si>
 </sst>
 </file>
@@ -605,7 +632,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,6 +784,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1076,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B06933-F4E5-4051-B562-F02A7FC5D457}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1323,6 +1353,38 @@
         <v>1</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1340,5 +1402,10 @@
     <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="3" max="1048575" man="1"/>
+    <brk id="7" max="1048575" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
--- a/pour trash.xlsx
+++ b/pour trash.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\github\KXKMSACIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{884D579D-C1C2-4721-8C8F-C77A2F63AE03}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F8D065-77E8-447B-8988-CD7977552EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29085" yWindow="6705" windowWidth="19410" windowHeight="9900" xr2:uid="{107CE0B9-EBDD-449D-90AD-3C7C7BB10BB3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{107CE0B9-EBDD-449D-90AD-3C7C7BB10BB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$O$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$H$22</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>jauge</t>
   </si>
@@ -105,9 +107,6 @@
     <t>enter</t>
   </si>
   <si>
-    <t>noir</t>
-  </si>
-  <si>
     <t>preview moins</t>
   </si>
   <si>
@@ -117,39 +116,15 @@
     <t>active preview</t>
   </si>
   <si>
-    <t>noir &amp; change etat ligne hors ligne</t>
-  </si>
-  <si>
-    <t>active preview &amp; change etat ligne hors ligne</t>
-  </si>
-  <si>
     <t>change etat lampe</t>
   </si>
   <si>
     <t>remote 4 btn</t>
   </si>
   <si>
-    <t>1-&gt;6</t>
-  </si>
-  <si>
     <t>preview</t>
   </si>
   <si>
-    <t>etat</t>
-  </si>
-  <si>
-    <t>hors ligne</t>
-  </si>
-  <si>
-    <t>ligne</t>
-  </si>
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>led preview</t>
-  </si>
-  <si>
     <t>fonction</t>
   </si>
   <si>
@@ -178,6 +153,84 @@
   </si>
   <si>
     <t>&gt; 11%</t>
+  </si>
+  <si>
+    <t>not use</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>wifi</t>
+  </si>
+  <si>
+    <t>blink</t>
+  </si>
+  <si>
+    <t>lock</t>
+  </si>
+  <si>
+    <t>unlock</t>
+  </si>
+  <si>
+    <t>artnet</t>
+  </si>
+  <si>
+    <t>manu</t>
+  </si>
+  <si>
+    <t>stm</t>
+  </si>
+  <si>
+    <t>lamp grad.</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>moy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>deco</t>
+  </si>
+  <si>
+    <t>ruban vp</t>
+  </si>
+  <si>
+    <t>change etat lampe grad</t>
+  </si>
+  <si>
+    <t>combine</t>
+  </si>
+  <si>
+    <t>esc &amp; enter</t>
+  </si>
+  <si>
+    <t>- &amp; +</t>
+  </si>
+  <si>
+    <t>lock &amp; unlock</t>
+  </si>
+  <si>
+    <t>edit grad</t>
+  </si>
+  <si>
+    <t>lock&lt;-manu&lt;-edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active preview &amp; change etat lock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">noir </t>
   </si>
 </sst>
 </file>
@@ -200,7 +253,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +308,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -444,39 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -548,14 +597,242 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
@@ -568,62 +845,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -632,48 +885,244 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -682,111 +1131,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,306 +1552,772 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B06933-F4E5-4051-B562-F02A7FC5D457}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="4" max="4" width="11.42578125" style="1"/>
-    <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.42578125" style="1"/>
+    <col min="7" max="7" width="11" style="98" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="23"/>
+      <c r="D1" s="102" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="D2" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="109" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="100" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="101"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>4</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="110"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="105" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>2</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" s="115" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="105" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="113"/>
+      <c r="H6" s="116"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>4</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>1</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="3"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="D2" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="22" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="33">
-        <v>4</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="30"/>
-      <c r="H3" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="41">
-        <v>7</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="43" t="s">
+    </row>
+    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="44"/>
-      <c r="L4" s="45" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="48"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="34">
-        <v>2</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35">
-        <v>1</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="D7" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="32" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>4</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>3</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>2</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
-        <v>4</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>3</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <v>2</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H1:O1"/>
-    <mergeCell ref="J2:O2"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+  <mergeCells count="7">
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="D1:H1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="2" manualBreakCount="2">
+  <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
     <brk id="3" max="1048575" man="1"/>
-    <brk id="7" max="1048575" man="1"/>
   </colBreaks>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E207083B-5E05-495F-8565-268DF5891242}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="7" width="6.7109375" style="1" customWidth="1"/>
+    <col min="8" max="11" width="3.7109375" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64">
+        <v>1</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="65">
+        <v>2</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="84"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="65">
+        <v>3</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="65">
+        <v>4</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65">
+        <v>5</v>
+      </c>
+      <c r="B7" s="71"/>
+      <c r="C7" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="50"/>
+      <c r="I7" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="86"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="64">
+        <v>6</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="83"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65">
+        <v>7</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="64">
+        <v>8</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="83"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="65">
+        <v>9</v>
+      </c>
+      <c r="B11" s="69" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="88"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="65">
+        <v>10</v>
+      </c>
+      <c r="B12" s="70"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="62"/>
+      <c r="K12" s="88"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="65">
+        <v>11</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="62"/>
+      <c r="K13" s="88"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="65">
+        <v>12</v>
+      </c>
+      <c r="B14" s="70"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="88"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="65">
+        <v>13</v>
+      </c>
+      <c r="B15" s="70"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="88"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="65">
+        <v>14</v>
+      </c>
+      <c r="B16" s="71"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="89"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="64">
+        <v>15</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="83"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="65">
+        <v>16</v>
+      </c>
+      <c r="B18" s="78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" s="45"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="87"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="64">
+        <v>17</v>
+      </c>
+      <c r="B19" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="83"/>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="66">
+        <v>18</v>
+      </c>
+      <c r="B20" s="79" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="92" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="94"/>
+      <c r="H20" s="95" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B10:K10"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="C2:K2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>